--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,39 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>user</author>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>태풍</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>태풍</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,12 +74,122 @@
         </r>
       </text>
     </comment>
+    <comment ref="G18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공문</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병원</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공문</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">인정
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,10 +347,6 @@
   </si>
   <si>
     <t>김기범</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +392,26 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -296,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +738,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +822,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
@@ -681,8 +845,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>40</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -698,7 +868,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
@@ -715,7 +894,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
@@ -732,7 +920,16 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
@@ -749,7 +946,13 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -766,7 +969,13 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
@@ -783,8 +992,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -800,8 +1018,17 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -817,8 +1044,14 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>42</v>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -834,7 +1067,16 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -851,7 +1093,16 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
@@ -868,7 +1119,16 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
@@ -885,7 +1145,13 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
@@ -902,7 +1168,16 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
@@ -919,7 +1194,16 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
     </row>
@@ -936,8 +1220,14 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>42</v>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -953,7 +1243,13 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +1266,16 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
     </row>
@@ -985,7 +1290,7 @@
       </c>
       <c r="E21">
         <f>SUM(E2:E20)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f t="shared" ref="F21:N21" si="0">SUM(F2:F20)</f>
@@ -993,19 +1298,19 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -71,6 +71,93 @@
           </rPr>
           <t xml:space="preserve">공결
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수학축전</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결막염</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진단서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제출해야함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지각</t>
         </r>
       </text>
     </comment>
@@ -738,7 +825,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,6 +921,9 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -854,6 +944,9 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -880,6 +973,9 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -906,6 +1002,9 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -955,6 +1054,9 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -978,6 +1080,9 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1004,6 +1109,9 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1030,6 +1138,9 @@
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1053,6 +1164,9 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1079,6 +1193,9 @@
       <c r="J12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1154,6 +1271,9 @@
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1180,6 +1300,9 @@
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1206,6 +1329,9 @@
       <c r="J17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1229,6 +1355,9 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1252,6 +1381,9 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1276,6 +1408,9 @@
         <v>1</v>
       </c>
       <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1453,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0">
+    <comment ref="D6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0">
+    <comment ref="L13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0">
+    <comment ref="L14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0" shapeId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,11 +152,13 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지각</t>
+          <t xml:space="preserve">지각
+12시에 들어옴
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,57 +395,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/Lebty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ea1234e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/LJ-Hyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/cjwo0817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ossuaryy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/wnsdyd0613</t>
+  </si>
+  <si>
+    <t>https://github.com/ws3319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/yeji-yeji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Lebty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ea1234e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/LJ-Hyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/cjwo0817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ossuaryy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/wnsdyd0613</t>
-  </si>
-  <si>
-    <t>https://github.com/ws3319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김기범</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -814,7 +811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,7 +822,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,27 +918,33 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
@@ -953,7 +956,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -971,6 +974,9 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
@@ -1031,19 +1037,22 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,6 +1061,9 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
@@ -1080,6 +1092,9 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1107,6 +1122,9 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
@@ -1127,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1136,6 +1154,9 @@
         <v>1</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
@@ -1147,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1156,12 +1177,15 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
@@ -1173,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1191,6 +1215,9 @@
         <v>1</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
@@ -1202,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1220,6 +1247,9 @@
         <v>1</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
     </row>
@@ -1228,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1246,6 +1276,9 @@
         <v>1</v>
       </c>
       <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1280,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1298,6 +1331,9 @@
         <v>1</v>
       </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
@@ -1329,6 +1365,9 @@
       <c r="J17">
         <v>1</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <v>1</v>
       </c>
@@ -1355,6 +1394,9 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <v>1</v>
       </c>
@@ -1381,6 +1423,9 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <v>1</v>
       </c>
@@ -1408,6 +1453,9 @@
         <v>1</v>
       </c>
       <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
@@ -1449,7 +1497,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,80 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1">
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>학교</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>독서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문화기행</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">가족여행
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="O6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,11 +158,63 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>수학축전</t>
+          <t>학교</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">독서문하기행
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0">
+    <comment ref="O11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지각</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수학축전</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0">
+    <comment ref="M15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,13 +569,105 @@
   </si>
   <si>
     <t>https://github.com/yeji-yeji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우찬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현승2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완석3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준수3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유승3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정현6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성우6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준우9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재을10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지훈11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희수12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤승13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도현14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우영15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임희원16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오대완17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -811,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,94 +1041,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="B1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
         <v>43701</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43708</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43715</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43722</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43729</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43736</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43743</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43750</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43757</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43764</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43771</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43778</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43785</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43792</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43799</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43806</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43813</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>43820</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="H2">
@@ -924,47 +1143,59 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="H4">
@@ -982,21 +1213,27 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="H5">
@@ -1008,24 +1245,30 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="H6">
@@ -1040,27 +1283,33 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="K7">
@@ -1069,21 +1318,27 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="E8">
         <v>1</v>
       </c>
       <c r="H8">
@@ -1092,32 +1347,35 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -1130,26 +1388,32 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
         <v>1</v>
       </c>
@@ -1162,50 +1426,62 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="H12">
@@ -1223,21 +1499,27 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="H13">
@@ -1252,21 +1534,27 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="H14">
@@ -1281,21 +1569,27 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="H15">
@@ -1304,24 +1598,30 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="H16">
@@ -1339,21 +1639,24 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="E17">
         <v>1</v>
       </c>
       <c r="H17">
@@ -1371,21 +1674,27 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="H18">
@@ -1394,27 +1703,33 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="E19">
         <v>1</v>
       </c>
       <c r="H19">
@@ -1423,27 +1738,33 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="J19">
         <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="E20">
         <v>1</v>
       </c>
       <c r="H20">
@@ -1461,59 +1782,64 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <f>SUM(C2:C20)</f>
-        <v>19</v>
-      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D21">
         <f>SUM(D2:D20)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <f>SUM(E2:E20)</f>
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F2:F20)</f>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:N21" si="0">SUM(F2:F20)</f>
+      <c r="G21">
+        <f t="shared" ref="G21:M21" si="0">SUM(G2:G20)</f>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(N2:N20)</f>
+        <v>19</v>
       </c>
       <c r="O21">
         <f>SUM(O2:O20)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P21">
         <f>SUM(P2:P20)</f>
@@ -1524,42 +1850,126 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21" si="1">SUM(R2:R20)</f>
+        <f>SUM(R2:R20)</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21" si="2">SUM(S2:S20)</f>
+        <f t="shared" ref="S21" si="1">SUM(S2:S20)</f>
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21" si="3">SUM(T2:T20)</f>
+        <f t="shared" ref="T21" si="2">SUM(T2:T20)</f>
         <v>0</v>
       </c>
+      <c r="U21">
+        <f t="shared" ref="U21" si="3">SUM(U2:U20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D20">
-    <sortCondition ref="A3:A19"/>
+  <sortState ref="B4:E20">
+    <sortCondition ref="B3:B19"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B20" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
-    <hyperlink ref="B18" r:id="rId7"/>
-    <hyperlink ref="B19" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="B7" r:id="rId13"/>
-    <hyperlink ref="B13" r:id="rId14"/>
-    <hyperlink ref="B12" r:id="rId15"/>
-    <hyperlink ref="B15" r:id="rId16"/>
-    <hyperlink ref="B4" r:id="rId17"/>
-    <hyperlink ref="B14" r:id="rId18" display="https://github.com/wnsdyd0612"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C20" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C19" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C11" r:id="rId12"/>
+    <hyperlink ref="C7" r:id="rId13"/>
+    <hyperlink ref="C13" r:id="rId14"/>
+    <hyperlink ref="C12" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="C4" r:id="rId17"/>
+    <hyperlink ref="C14" r:id="rId18" display="https://github.com/wnsdyd0612"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId19"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이진석\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A39A9-1AD1-4D36-B6DA-0E1C2AA1BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>user</author>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,11 +185,54 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지각</t>
+          <t>장학수여식</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참여
+해교담임선생님께</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문의</t>
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,11 +243,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>조부모 상</t>
+          <t>지각</t>
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조부모 상</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="O10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="E13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="O13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="M19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -770,7 +827,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1177,11 +1234,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,6 +1391,9 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1378,6 +1438,9 @@
       <c r="P4">
         <v>1</v>
       </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1419,6 +1482,9 @@
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1460,6 +1526,9 @@
       <c r="P6">
         <v>1</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1504,6 +1573,9 @@
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1548,6 +1620,9 @@
       <c r="P8">
         <v>1</v>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1592,6 +1667,9 @@
       <c r="P9">
         <v>1</v>
       </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1636,6 +1714,9 @@
       <c r="P10">
         <v>1</v>
       </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1677,6 +1758,9 @@
       <c r="P11">
         <v>1</v>
       </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1721,6 +1805,9 @@
       <c r="P12">
         <v>1</v>
       </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1762,6 +1849,9 @@
       <c r="P13">
         <v>1</v>
       </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1803,6 +1893,9 @@
       <c r="P14">
         <v>1</v>
       </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1844,6 +1937,9 @@
       <c r="P15">
         <v>1</v>
       </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
@@ -1923,6 +2019,9 @@
       <c r="P17">
         <v>1</v>
       </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1964,6 +2063,9 @@
       <c r="P18">
         <v>1</v>
       </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2002,6 +2104,9 @@
       <c r="P19">
         <v>1</v>
       </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2040,10 +2145,13 @@
       <c r="P20">
         <v>1</v>
       </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D21">
-        <f t="shared" ref="D21:U21" si="0">SUM(D3:D20)</f>
+        <f t="shared" ref="D21:O21" si="0">SUM(D3:D20)</f>
         <v>18</v>
       </c>
       <c r="E21">
@@ -2096,7 +2204,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:U21" si="1">SUM(Q2:Q20)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
@@ -2227,30 +2335,30 @@
       <c r="E34" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:U21">
+  <sortState ref="B2:U21">
     <sortCondition ref="B2:B21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://github.com/wnsdyd0612" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C15" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C5" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C11" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C10" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://github.com/wnsdyd0612"/>
+    <hyperlink ref="C3" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId20"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -36,7 +36,7 @@
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,58 +61,6 @@
             <charset val="129"/>
           </rPr>
           <t>태풍</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>병원</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공문</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인정</t>
         </r>
       </text>
     </comment>
@@ -120,7 +68,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -131,7 +78,6 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -141,7 +87,6 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -152,7 +97,6 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -162,6 +106,62 @@
         </r>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병원</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공문</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,21 +229,6 @@
             <charset val="129"/>
           </rPr>
           <t>문의</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지각</t>
         </r>
       </text>
     </comment>
@@ -258,11 +243,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>조부모 상</t>
+          <t>지각</t>
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조부모 상</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0">
+    <comment ref="P10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="1" shapeId="0">
+    <comment ref="F13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0">
+    <comment ref="P13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0">
+    <comment ref="N18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0">
+    <comment ref="N19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,14 @@
   </si>
   <si>
     <t>80 - 파일 개수가 그 이상 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,98 +1243,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="21" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
         <v>43701</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43708</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43715</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43722</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43729</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43736</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43743</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43750</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43757</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43764</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43771</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43778</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>43785</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>43792</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>43799</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>43806</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>43813</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>43820</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>99</v>
+      </c>
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="I2">
@@ -1335,7 +1349,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="M2">
@@ -1350,33 +1364,39 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>92</v>
+      </c>
+      <c r="B3">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="M3">
@@ -1394,29 +1414,35 @@
       <c r="Q3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>86</v>
+      </c>
+      <c r="B4">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
@@ -1441,33 +1467,39 @@
       <c r="Q4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>83</v>
+      </c>
+      <c r="B5">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="M5">
@@ -1485,24 +1517,30 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>85</v>
+      </c>
+      <c r="B6">
         <v>95</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="I6">
@@ -1514,39 +1552,45 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>1</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="I7">
@@ -1576,24 +1620,30 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>97</v>
+      </c>
+      <c r="B8">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="I8">
@@ -1623,29 +1673,35 @@
       <c r="Q8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>87</v>
+      </c>
+      <c r="B9">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9">
         <v>1</v>
       </c>
@@ -1670,24 +1726,30 @@
       <c r="Q9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
         <v>95</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="I10">
@@ -1717,24 +1779,30 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>94</v>
+      </c>
+      <c r="B11">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="I11">
@@ -1749,7 +1817,7 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="M11">
         <v>1</v>
       </c>
       <c r="O11">
@@ -1761,24 +1829,30 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>97</v>
+      </c>
+      <c r="B12">
         <v>95</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1808,24 +1882,30 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>89</v>
+      </c>
+      <c r="B13">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="I13">
@@ -1840,7 +1920,7 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="M13">
         <v>1</v>
       </c>
       <c r="O13">
@@ -1852,30 +1932,36 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>82</v>
+      </c>
+      <c r="B14">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <v>1</v>
       </c>
       <c r="L14">
@@ -1896,24 +1982,30 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>94</v>
+      </c>
+      <c r="B15">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="I15">
@@ -1922,7 +2014,7 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="M15">
@@ -1940,21 +2032,24 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3">
@@ -1975,24 +2070,27 @@
       <c r="N16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>88</v>
+      </c>
+      <c r="B17">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="F17">
         <v>1</v>
       </c>
       <c r="I17">
@@ -2022,24 +2120,30 @@
       <c r="Q17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="F18">
         <v>1</v>
       </c>
       <c r="I18">
@@ -2054,7 +2158,7 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="M18">
         <v>1</v>
       </c>
       <c r="O18">
@@ -2066,24 +2170,30 @@
       <c r="Q18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>91</v>
+      </c>
+      <c r="B19">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="F19">
         <v>1</v>
       </c>
       <c r="I19">
@@ -2092,7 +2202,7 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
@@ -2107,24 +2217,27 @@
       <c r="Q19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>84</v>
+      </c>
+      <c r="B20">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="F20">
         <v>1</v>
       </c>
       <c r="I20">
@@ -2133,7 +2246,7 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="K20">
         <v>1</v>
       </c>
       <c r="M20">
@@ -2142,25 +2255,27 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="P20">
+      <c r="O20">
         <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <f t="shared" ref="D21:O21" si="0">SUM(D3:D20)</f>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" ref="E21:P21" si="0">SUM(E3:E20)</f>
         <v>18</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>17</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -2168,51 +2283,51 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P21">
-        <f>SUM(P2:P20)</f>
+      <c r="Q21">
+        <f>SUM(Q2:Q20)</f>
         <v>18</v>
       </c>
-      <c r="Q21">
-        <f t="shared" ref="Q21:U21" si="1">SUM(Q2:Q20)</f>
+      <c r="R21">
+        <f t="shared" ref="R21:V21" si="1">SUM(R2:R20)</f>
         <v>17</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
@@ -2222,143 +2337,147 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>55</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>64</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>42</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>52</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>53</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>48</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>54</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C32" s="6" t="s">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="6" t="s">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="B2:U21">
-    <sortCondition ref="B2:B21"/>
+  <sortState ref="C2:V21">
+    <sortCondition ref="C2:C21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C16" r:id="rId10"/>
-    <hyperlink ref="C5" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C11" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C10" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://github.com/wnsdyd0612"/>
-    <hyperlink ref="C3" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D17" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="D15" r:id="rId8"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D16" r:id="rId10"/>
+    <hyperlink ref="D5" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D11" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D10" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://github.com/wnsdyd0612"/>
+    <hyperlink ref="D3" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId20"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,6 +1367,9 @@
       <c r="Q2">
         <v>1</v>
       </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
       <c r="S2">
         <v>1</v>
       </c>
@@ -2323,7 +2326,7 @@
       </c>
       <c r="R21">
         <f t="shared" ref="R21:V21" si="1">SUM(R2:R20)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2223,6 +2223,9 @@
       <c r="R19">
         <v>1</v>
       </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2330,7 +2333,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T21">
         <f t="shared" si="1"/>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -228,7 +228,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>문의</t>
+          <t>문의
+받았음</t>
         </r>
       </text>
     </comment>
@@ -540,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -829,6 +830,10 @@
   </si>
   <si>
     <t>git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1251,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2163,6 +2168,9 @@
       </c>
       <c r="M18">
         <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
       </c>
       <c r="O18">
         <v>1</v>

--- a/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
+++ b/2019년 2학기 부산진고교 플러스교육 출석부.xlsx
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,6 +1378,9 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1531,6 +1534,9 @@
       <c r="S5">
         <v>1</v>
       </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1581,6 +1587,9 @@
       <c r="S6">
         <v>1</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1634,6 +1643,9 @@
       <c r="S7">
         <v>1</v>
       </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1687,6 +1699,9 @@
       <c r="S8">
         <v>1</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1843,6 +1858,9 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1896,6 +1914,9 @@
       <c r="S12">
         <v>1</v>
       </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2025,6 +2046,9 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
       <c r="M15">
         <v>1</v>
       </c>
@@ -2134,6 +2158,9 @@
       <c r="S17">
         <v>1</v>
       </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -2187,6 +2214,9 @@
       <c r="S18">
         <v>1</v>
       </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2216,6 +2246,9 @@
       <c r="K19">
         <v>1</v>
       </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -2232,6 +2265,9 @@
         <v>1</v>
       </c>
       <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <v>1</v>
       </c>
     </row>
@@ -2261,6 +2297,9 @@
         <v>1</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
@@ -2313,7 +2352,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -2345,7 +2384,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
